--- a/biology/Zoologie/Bichon_à_poil_frisé/Bichon_à_poil_frisé.xlsx
+++ b/biology/Zoologie/Bichon_à_poil_frisé/Bichon_à_poil_frisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bichon_%C3%A0_poil_fris%C3%A9</t>
+          <t>Bichon_à_poil_frisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bichon frisé, autrefois appelé Tenerife, est un petit chien de compagnie à poil blanc, réputé pour sa grande sociabilité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bichon_%C3%A0_poil_fris%C3%A9</t>
+          <t>Bichon_à_poil_frisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bichon frisé est né sous la Renaissance italienne (1400-1560) du croisement entre le bichon maltais avec d’autres petits chiens  dont principalement le caniche et le barbet, chien de chasse à l’eau également ancêtre  du caniche.
 Connu depuis le  XIVe siècle, dans le bassin méditerranéen, il fut au cours de ce siècle introduit aux îles Canaries. Cet épisode lui valut de se faire appeler « Ténériffe », du nom de l'une des principales îles de cet archipel, abritant la capitale Santa Cruz. Il conservera ce nom très longtemps, jusqu'à ces dernières années.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bichon_%C3%A0_poil_fris%C3%A9</t>
+          <t>Bichon_à_poil_frisé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Caractère et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par nature chien de compagnie, le bichon frisé est réputé très sociable[1], accueillant ses maîtres des démonstrations de joie. Il est joueur avec les enfants, et doux avec les personnes âgées. Il est à l’aise dans un appartement ou dans un jardin. Il est capable de s’adapter à toutes les situations et apprécie d'accompagner les humains dans leurs différents déplacements. Il est un parfait compagnon de voyage de par sa petite taille et son adaptabilité à quasiment toutes les situations et surtout sa grande sociabilité. C’est un chien très sociable avec les autres animaux. Le bichon frisé est un mauvais gardien, mais peut alerter sur la présence d'un inconnu.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par nature chien de compagnie, le bichon frisé est réputé très sociable, accueillant ses maîtres des démonstrations de joie. Il est joueur avec les enfants, et doux avec les personnes âgées. Il est à l’aise dans un appartement ou dans un jardin. Il est capable de s’adapter à toutes les situations et apprécie d'accompagner les humains dans leurs différents déplacements. Il est un parfait compagnon de voyage de par sa petite taille et son adaptabilité à quasiment toutes les situations et surtout sa grande sociabilité. C’est un chien très sociable avec les autres animaux. Le bichon frisé est un mauvais gardien, mais peut alerter sur la présence d'un inconnu.
 Il adore jouer, mais il peut être difficile (non impossible) de lui apprendre des tours de par son côté sûr de lui et un peu indépendant[réf. nécessaire]. C'est un chien qui doit toujours avoir de l'attention, et qui ne peut rester à la maison pour plus de cinq heures sans causer de dommages[réf. nécessaire] ou pleurer[Information douteuse]. Il faut beaucoup de patience pour l'habituer à son environnement, mais la meilleure façon est de jouer et lui donner des caresses[réf. nécessaire]. Le bichon frisé est un chien toujours heureux[réf. nécessaire] en présence d'autre humains ou autres animaux. Par contre, c'est un chien extrêmement jappeur.
 Quand il est un jeune chiot, il préfère rester avec des enfants (même adulte généralement). Le bichon frisé est un chien toujours enjoué et content. Il est courant qu'une fois par jour il ait un épisode de défoulement d’énergie, aussi appelé en anglais blitz ou buzz, durant lequel il va sauter, courir en ronds, rouler, s’agiter le plus possible en recherchant aussi la participation des humains. Cela arrive plus souvent entre un an et sept ans et la seule façon de le calmer est d’être calme soi-même. Le bichon est également un animal très docile et très gentil. Il est très attachant. Sa pire punition : être séparé de son maître. Il recherche indéniablement la compagnie de ses maîtres mais il peut les attendre sans problème pour toute une longue journée d'absence[Information douteuse].
 </t>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bichon_%C3%A0_poil_fris%C3%A9</t>
+          <t>Bichon_à_poil_frisé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Toilettage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré son poil blanc frisé et abondant, il demande assez peu d'entretien[1]. Un brossage permet au pelage d'être démêlé, son poil est fin mais difficile à démêler s'il comporte des nœuds. Le bichon frisé est une race hypoallergénique ne perdant pas ses poils[réf. nécessaire]. Du fait de la forme presque circulaire de son œil et de sa paupière, les larmes oxydent le pelage sous les yeux si cette zone n'est pas régulièrement nettoyée. Le poil étant blanc, la région autour de la gueule peut devenir également oxydée. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré son poil blanc frisé et abondant, il demande assez peu d'entretien. Un brossage permet au pelage d'être démêlé, son poil est fin mais difficile à démêler s'il comporte des nœuds. Le bichon frisé est une race hypoallergénique ne perdant pas ses poils[réf. nécessaire]. Du fait de la forme presque circulaire de son œil et de sa paupière, les larmes oxydent le pelage sous les yeux si cette zone n'est pas régulièrement nettoyée. Le poil étant blanc, la région autour de la gueule peut devenir également oxydée. 
 Il faut également apporter un soin particulier à ses oreilles, et éviter que des poils ne poussent à l'intérieur, ce qui peut générer de l'humidité et des otites. Les poils du conduit auditifs peuvent facilement se retirer avec une pince à épiler.
 </t>
         </is>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bichon_%C3%A0_poil_fris%C3%A9</t>
+          <t>Bichon_à_poil_frisé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,11 +634,13 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré son apparence fragile, le bichon frisé est généralement un chien en bonne santé[1].
-La race est sujette à des cataractes génétiquement héritées, qui surviennent généralement entre l'âge de 2 et de 8 ans[2]. La transmission est autosomique récessive[3]. Ces cataractes sont caractérisées par un décollement de la rétine chez les chiens élevés aux États-Unis, complication qui ne survient pas chez les chiens d'origine britannique[4].
-Une dyskinésie a été documentée chez un chien adulte de cette race[5], et une alopécie congénitale l'a été chez un chiot[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré son apparence fragile, le bichon frisé est généralement un chien en bonne santé.
+La race est sujette à des cataractes génétiquement héritées, qui surviennent généralement entre l'âge de 2 et de 8 ans. La transmission est autosomique récessive. Ces cataractes sont caractérisées par un décollement de la rétine chez les chiens élevés aux États-Unis, complication qui ne survient pas chez les chiens d'origine britannique.
+Une dyskinésie a été documentée chez un chien adulte de cette race, et une alopécie congénitale l'a été chez un chiot.
 </t>
         </is>
       </c>
